--- a/biology/Botanique/Quercus_canariensis/Quercus_canariensis.xlsx
+++ b/biology/Botanique/Quercus_canariensis/Quercus_canariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chêne zéen (prononciation : zé-in) (Quercus canariensis), aussi appelé Chêne des Canaries et parfois Chêne andalou ou Chêne biliaire, est une espèce d'arbres de la famille des Fagaceae, originaire d'Espagne, du Portugal, de Tunisie, d'Algérie et du Maroc, mais absent des îles Canaries. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre à feuilles caduques à semi-persistantes, de taille moyenne à grande atteignant 20 à plus de 30 m de hauteur avec un tronc supérieur à 1,5 m de diamètre.
 Les feuilles mesurent 10 à 15 cm en longueur et 6 à 8 cm en largeur, avec 6 à 12 paires de lobes peu profonds.
